--- a/artfynd/A 11347-2019.xlsx
+++ b/artfynd/A 11347-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1320,6 +1320,130 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112207069</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90021</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6031</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Blomkålssvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sparassis crispa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Wulfen:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Skogen Vita bergen, Sm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>496938.2644572215</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6390349.892939959</v>
+      </c>
+      <c r="S7" t="n">
+        <v>25</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jönköping</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Eksjö</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Eksjö</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Anita Lindström Jensen</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Anita Lindström Jensen</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 11347-2019.xlsx
+++ b/artfynd/A 11347-2019.xlsx
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>497027.506883407</v>
+        <v>497028</v>
       </c>
       <c r="R6" t="n">
-        <v>6390694.916486364</v>
+        <v>6390695</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1282,19 +1282,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1373,10 +1363,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>496938.2644572215</v>
+        <v>496938</v>
       </c>
       <c r="R7" t="n">
-        <v>6390349.892939959</v>
+        <v>6390350</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1406,19 +1396,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 11347-2019.xlsx
+++ b/artfynd/A 11347-2019.xlsx
@@ -1315,7 +1315,7 @@
         <v>112207069</v>
       </c>
       <c r="B7" t="n">
-        <v>90021</v>
+        <v>90155</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>

--- a/artfynd/A 11347-2019.xlsx
+++ b/artfynd/A 11347-2019.xlsx
@@ -1315,7 +1315,7 @@
         <v>112207069</v>
       </c>
       <c r="B7" t="n">
-        <v>90155</v>
+        <v>90169</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
